--- a/Data-Analysis-Project1/experiment.xlsx
+++ b/Data-Analysis-Project1/experiment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB138BFE-F6AE-5D46-9DE1-2F73C555CDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5DD477-37F2-374B-9933-548420666633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="C2:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>

--- a/Data-Analysis-Project1/experiment.xlsx
+++ b/Data-Analysis-Project1/experiment.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5DD477-37F2-374B-9933-548420666633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA54B4C-A3F4-554D-A447-1242CB37EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -824,15 +824,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="D20:K20"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:K3"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data-Analysis-Project1/experiment.xlsx
+++ b/Data-Analysis-Project1/experiment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA54B4C-A3F4-554D-A447-1242CB37EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48922752-DA78-074E-8B3F-298918944866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -117,15 +117,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -413,7 +459,7 @@
   <dimension ref="C2:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -423,36 +469,36 @@
     <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+    <row r="2" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="3"/>
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="4"/>
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="2"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
@@ -478,7 +524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -491,7 +537,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
@@ -504,7 +550,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -517,7 +563,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
@@ -530,7 +576,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
@@ -543,7 +589,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
@@ -556,36 +602,36 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
+    <row r="11" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="3"/>
+      <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="4"/>
+      <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="2"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="5"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -611,7 +657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
         <v>0</v>
       </c>
@@ -624,7 +670,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
@@ -637,7 +683,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
@@ -650,7 +696,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
@@ -663,7 +709,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
@@ -676,7 +722,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
@@ -689,36 +735,36 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
+    <row r="20" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="3"/>
+      <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="2"/>
-      <c r="D21" s="3" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="4"/>
+      <c r="D21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="2"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
@@ -744,7 +790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="2" t="s">
         <v>0</v>
       </c>
@@ -757,7 +803,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="2" t="s">
         <v>1</v>
       </c>
@@ -770,7 +816,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -783,7 +829,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
@@ -796,7 +842,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
@@ -809,7 +855,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
         <v>5</v>
       </c>
@@ -823,11 +869,14 @@
       <c r="K28" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="D11:K11"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="D20:K20"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="H21:K21"/>

--- a/Data-Analysis-Project1/experiment.xlsx
+++ b/Data-Analysis-Project1/experiment.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48922752-DA78-074E-8B3F-298918944866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746E8AEF-553F-6D48-8548-1C9675036136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>MLP</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Lag_1</t>
   </si>
   <si>
-    <t>ss_cls</t>
-  </si>
-  <si>
-    <t>ss_reg</t>
-  </si>
-  <si>
     <t>os_cls</t>
   </si>
   <si>
@@ -65,6 +59,12 @@
   </si>
   <si>
     <t>Lag_3</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr</t>
   </si>
 </sst>
 </file>
@@ -94,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -154,16 +154,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -171,9 +246,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,432 +528,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:K28"/>
+  <dimension ref="C2:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H5" sqref="H5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8.83203125" style="1"/>
     <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="9" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="3.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="3"/>
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="17"/>
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="18"/>
+      <c r="D3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="19"/>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="7">
+        <v>0.4884</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.18142230000000001</v>
+      </c>
+      <c r="G5" s="7">
+        <v>3.2009999999999997E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.51777260000000003</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.3508</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="7"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="7">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.36030000000000001</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.2174989</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4.6989999999999997E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.51777260000000003</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.3508</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="7">
+        <v>0.4829</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.35965999999999998</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.34486899999999998</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.11630699999999999</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.52881100000000003</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.35847600000000002</v>
+      </c>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="7">
+        <v>0.47537800000000002</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.3533</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.13952000000000001</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1.9021E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.50988405000000003</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.34538000000000002</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="3"/>
-      <c r="D11" s="6" t="s">
+      <c r="D10" s="7">
+        <v>0.49376139000000002</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.348555</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.3387</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.11451</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.54370390000000002</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.36854999999999999</v>
+      </c>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="4"/>
-      <c r="D12" s="6" t="s">
+      <c r="H14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
+      <c r="I14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="5"/>
-      <c r="D13" s="2" t="s">
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="2" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="2" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="2" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="2" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="2" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="2" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="3"/>
-      <c r="D20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="4"/>
-      <c r="D21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="5"/>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C11:C13"/>
+  <mergeCells count="10">
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="D2:I2"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data-Analysis-Project1/experiment.xlsx
+++ b/Data-Analysis-Project1/experiment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746E8AEF-553F-6D48-8548-1C9675036136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72161F6-A4E6-C342-BC77-EA4FAAC310DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,12 +86,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -195,15 +201,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -247,6 +250,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,7 +552,7 @@
   <dimension ref="C2:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I5"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -544,33 +565,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="17"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="5"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="18"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="5"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="19"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
@@ -589,275 +610,362 @@
       <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.4884</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>0.34160000000000001</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.18142230000000001</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>3.2009999999999997E-2</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.51777260000000003</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>0.3508</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
+      <c r="D6" s="6">
+        <v>0.48944789999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.18501999999999999</v>
+      </c>
+      <c r="G6" s="11">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.51932999999999996</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>0.47799999999999998</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>0.36030000000000001</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>0.2174989</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>4.6989999999999997E-2</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>0.51777260000000003</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>0.3508</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>0.4829</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>0.35965999999999998</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>0.34486899999999998</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.11630699999999999</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.52881100000000003</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>0.35847600000000002</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>0.47537800000000002</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0.3533</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>0.13952000000000001</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>1.9021E-2</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.50988405000000003</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>0.34538000000000002</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>0.49376139000000002</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>0.348555</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>0.3387</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>0.11451</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>0.54370390000000002</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>0.36854999999999999</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="7"/>
+      <c r="D15" s="6">
+        <v>0.48916100000000001</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.2258</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4.99E-2</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.35747899999999999</v>
+      </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="7"/>
+      <c r="D16" s="6">
+        <v>0.4829</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.20941199999999999</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.52215</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.35299999999999998</v>
+      </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="7"/>
+      <c r="D17" s="6">
+        <v>0.4829</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.35965999999999998</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0.40444999999999998</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0.16020000000000001</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0.53637999999999997</v>
+      </c>
+      <c r="I17" s="24">
+        <v>0.35747899999999999</v>
+      </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="7"/>
+      <c r="D18" s="6">
+        <v>0.48916100000000001</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.35965999999999998</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.36269299999999999</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.13045599999999999</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.36377176</v>
+      </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="7"/>
+      <c r="D19" s="6">
+        <v>0.4829</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.35965999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.20009279999999999</v>
+      </c>
+      <c r="G19" s="6">
+        <v>3.8420000000000003E-2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.51788599999999996</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="7"/>
+      <c r="D20" s="6">
+        <v>0.4829</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.29909920000000001</v>
+      </c>
+      <c r="G20" s="6">
+        <v>8.7911000000000003E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.53710000000000002</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.36400904769999998</v>
+      </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -877,67 +985,127 @@
       <c r="C25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="D25" s="6">
+        <v>0.48916100000000001</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.35965999999999998</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.2794181</v>
+      </c>
+      <c r="G25" s="9">
+        <v>7.7957499999999999E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.53264</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.36049999999999999</v>
+      </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="D26" s="6">
+        <v>0.48931000000000002</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.35965999999999998</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="G26" s="9">
+        <v>9.8369999999999999E-2</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.53440500000000002</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.36099999999999999</v>
+      </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="D27" s="6">
+        <v>0.4829</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.35965999999999998</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.29407843</v>
+      </c>
+      <c r="G27" s="9">
+        <v>8.6477200000000004E-2</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.52617000000000003</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.35639999999999999</v>
+      </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="D28" s="6">
+        <v>0.48931000000000002</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.35965999999999998</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="G28" s="9">
+        <v>7.8490000000000004E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.5272</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.35705999999999999</v>
+      </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="D29" s="6">
+        <v>0.4829</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.35965999999999998</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.25525999999999999</v>
+      </c>
+      <c r="G29" s="9">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.35491</v>
+      </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Data-Analysis-Project1/experiment.xlsx
+++ b/Data-Analysis-Project1/experiment.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72161F6-A4E6-C342-BC77-EA4FAAC310DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B58FDCD-F77A-CC46-B109-1026257167D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,6 +230,12 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,12 +268,6 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,7 +552,7 @@
   <dimension ref="C2:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -565,33 +565,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="16"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="17"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="18"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
@@ -758,27 +758,27 @@
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C12" s="10"/>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C13" s="10"/>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C14" s="10"/>
@@ -857,16 +857,16 @@
       <c r="E17" s="6">
         <v>0.35965999999999998</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="12">
         <v>0.40444999999999998</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="12">
         <v>0.16020000000000001</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="12">
         <v>0.53637999999999997</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="13">
         <v>0.35747899999999999</v>
       </c>
     </row>
@@ -940,26 +940,26 @@
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D24" s="2" t="s">
@@ -1100,12 +1100,24 @@
       <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="D30" s="6">
+        <v>0.477603</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.35965999999999998</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.31983</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.101699</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.53813537600000005</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.36480400000000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Data-Analysis-Project1/experiment.xlsx
+++ b/Data-Analysis-Project1/experiment.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B58FDCD-F77A-CC46-B109-1026257167D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EC43FD-461B-0046-9A91-28A9A44939D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,22 +85,23 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -109,79 +110,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -189,10 +121,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -201,72 +162,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:J30"/>
+  <dimension ref="C1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8.83203125" style="1"/>
     <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
@@ -564,574 +504,621 @@
     <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="18"/>
-      <c r="D2" s="14" t="s">
+    <row r="1" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="3:10" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="12"/>
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="19"/>
-      <c r="D3" s="14" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="3:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="20"/>
-      <c r="D4" s="2" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="3:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="13"/>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="5" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>0.4884</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0.34160000000000001</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>0.18142230000000001</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>3.2009999999999997E-2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>0.51777260000000003</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>0.3508</v>
       </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="2" t="s">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>0.48944789999999999</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="4">
         <v>0.34849999999999998</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="4">
         <v>0.18501999999999999</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="4">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>0.51932999999999996</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>0.35</v>
       </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="2" t="s">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>0.47799999999999998</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0.36030000000000001</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>0.2174989</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>4.6989999999999997E-2</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>0.51777260000000003</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>0.3508</v>
       </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="2" t="s">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>0.4829</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>0.35965999999999998</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>0.34486899999999998</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>0.11630699999999999</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>0.52881100000000003</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>0.35847600000000002</v>
       </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="2" t="s">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>0.47537800000000002</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>0.3533</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>0.13952000000000001</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>1.9021E-2</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>0.50988405000000003</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>0.34538000000000002</v>
       </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="3:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0.49376139000000002</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>0.348555</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>0.3387</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>0.11451</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>0.54370390000000002</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>0.36854999999999999</v>
       </c>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C12" s="10"/>
-      <c r="D12" s="21" t="s">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="3:10" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="3:10" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C13" s="10"/>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C14" s="10"/>
-      <c r="D14" s="6" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+      <c r="D15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I15" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C15" s="6" t="s">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="4">
         <v>0.48916100000000001</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E16" s="4">
         <v>0.34849999999999998</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F16" s="4">
         <v>0.2258</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="4">
         <v>4.99E-2</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H16" s="4">
         <v>0.52700000000000002</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I16" s="4">
         <v>0.35747899999999999</v>
       </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C16" s="6" t="s">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="4">
         <v>0.4829</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="4">
         <v>0.34160000000000001</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="4">
         <v>0.20941199999999999</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="4">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H17" s="4">
         <v>0.52215</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I17" s="4">
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C17" s="6" t="s">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="4">
         <v>0.4829</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="4">
         <v>0.35965999999999998</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F18" s="4">
         <v>0.40444999999999998</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G18" s="4">
         <v>0.16020000000000001</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H18" s="4">
         <v>0.53637999999999997</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I18" s="4">
         <v>0.35747899999999999</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C18" s="6" t="s">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="4">
         <v>0.48916100000000001</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="4">
         <v>0.35965999999999998</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="4">
         <v>0.36269299999999999</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="4">
         <v>0.13045599999999999</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H19" s="4">
         <v>0.53600000000000003</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I19" s="4">
         <v>0.36377176</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C19" s="6" t="s">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="4">
         <v>0.4829</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="4">
         <v>0.35965999999999998</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="4">
         <v>0.20009279999999999</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G20" s="4">
         <v>3.8420000000000003E-2</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H20" s="4">
         <v>0.51788599999999996</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I20" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C20" s="6" t="s">
+    <row r="21" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="5">
         <v>0.4829</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="5">
         <v>0.34849999999999998</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="5">
         <v>0.29909920000000001</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="5">
         <v>8.7911000000000003E-2</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H21" s="5">
         <v>0.53710000000000002</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I21" s="5">
         <v>0.36400904769999998</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D22" s="14" t="s">
+    <row r="22" spans="3:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="3:9" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D23" s="14" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D24" s="2" t="s">
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I26" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C25" s="2" t="s">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D27" s="4">
         <v>0.48916100000000001</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E27" s="4">
         <v>0.35965999999999998</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F27" s="4">
         <v>0.2794181</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G27" s="4">
         <v>7.7957499999999999E-2</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H27" s="4">
         <v>0.53264</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I27" s="4">
         <v>0.36049999999999999</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C26" s="2" t="s">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D28" s="4">
         <v>0.48931000000000002</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E28" s="4">
         <v>0.35965999999999998</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F28" s="4">
         <v>0.31669999999999998</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G28" s="4">
         <v>9.8369999999999999E-2</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H28" s="4">
         <v>0.53440500000000002</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I28" s="4">
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C27" s="2" t="s">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D29" s="4">
         <v>0.4829</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E29" s="4">
         <v>0.35965999999999998</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F29" s="4">
         <v>0.29407843</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G29" s="4">
         <v>8.6477200000000004E-2</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H29" s="4">
         <v>0.52617000000000003</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I29" s="4">
         <v>0.35639999999999999</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C28" s="2" t="s">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D30" s="4">
         <v>0.48931000000000002</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E30" s="4">
         <v>0.35965999999999998</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F30" s="4">
         <v>0.28050000000000003</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G30" s="4">
         <v>7.8490000000000004E-2</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H30" s="4">
         <v>0.5272</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I30" s="4">
         <v>0.35705999999999999</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C29" s="2" t="s">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D31" s="4">
         <v>0.4829</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E31" s="4">
         <v>0.35965999999999998</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F31" s="4">
         <v>0.25525999999999999</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G31" s="4">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H31" s="4">
         <v>0.52</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I31" s="4">
         <v>0.35491</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C30" s="2" t="s">
+    <row r="32" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D32" s="5">
         <v>0.477603</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E32" s="5">
         <v>0.35965999999999998</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F32" s="5">
         <v>0.31983</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G32" s="5">
         <v>0.101699</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H32" s="5">
         <v>0.53813537600000005</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I32" s="5">
         <v>0.36480400000000002</v>
       </c>
     </row>
+    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:I14"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>